--- a/Mifos Automation Excels/Client/3130-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-OVERDUE-FEE-FLAT-Regular-CASH-Makerepayment2.xlsx
+++ b/Mifos Automation Excels/Client/3130-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-OVERDUE-FEE-FLAT-Regular-CASH-Makerepayment2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="56">
   <si>
     <t>#</t>
   </si>
@@ -143,33 +143,18 @@
     <t>Repayment</t>
   </si>
   <si>
-    <t>$ 785.8</t>
-  </si>
-  <si>
     <t>INCOME</t>
   </si>
   <si>
     <t>Income from interest(7)</t>
   </si>
   <si>
-    <t>$ 101.92</t>
-  </si>
-  <si>
-    <t>Income from fees(8)</t>
-  </si>
-  <si>
-    <t>$ 100</t>
-  </si>
-  <si>
     <t>$ 987.72</t>
   </si>
   <si>
     <t>L216</t>
   </si>
   <si>
-    <t>$ 10,000</t>
-  </si>
-  <si>
     <t>L3193</t>
   </si>
   <si>
@@ -183,6 +168,27 @@
   </si>
   <si>
     <t>repaymenttransactiondate</t>
+  </si>
+  <si>
+    <t>$ 5,000</t>
+  </si>
+  <si>
+    <t>$ 936.76</t>
+  </si>
+  <si>
+    <t>$ 50.96</t>
+  </si>
+  <si>
+    <t>$ 887.72</t>
+  </si>
+  <si>
+    <t>$ 37.4</t>
+  </si>
+  <si>
+    <t>$ 850.32</t>
+  </si>
+  <si>
+    <t>repaymenttransactionamount</t>
   </si>
 </sst>
 </file>
@@ -306,9 +312,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -337,12 +340,13 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -644,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,19 +661,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>52</v>
+      <c r="A1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="20">
+      <c r="A2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="18">
         <v>42064</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="20">
+        <v>987.72</v>
       </c>
     </row>
   </sheetData>
@@ -679,16 +691,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A6" sqref="A6:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
@@ -717,85 +729,82 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+      <c r="A2" s="9">
         <v>10000</v>
       </c>
-      <c r="B2" s="8">
-        <v>785.8</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8">
-        <v>0</v>
-      </c>
-      <c r="E2" s="11">
-        <v>9214.2000000000007</v>
-      </c>
-      <c r="F2" s="8">
-        <v>802.9</v>
+      <c r="B2" s="10">
+        <v>1787.08</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7">
+        <v>0</v>
+      </c>
+      <c r="E2" s="10">
+        <v>8212.92</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>668.41</v>
-      </c>
-      <c r="B3" s="8">
-        <v>101.92</v>
-      </c>
-      <c r="C3" s="8">
-        <v>0</v>
-      </c>
-      <c r="D3" s="8">
-        <v>0</v>
-      </c>
-      <c r="E3" s="8">
-        <v>566.49</v>
-      </c>
-      <c r="F3" s="8">
-        <v>84.82</v>
+      <c r="A3" s="7">
+        <v>540.16999999999996</v>
+      </c>
+      <c r="B3" s="7">
+        <v>88.36</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7">
+        <v>451.81</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
-        <v>1200</v>
-      </c>
-      <c r="B4" s="8">
-        <v>100</v>
-      </c>
-      <c r="C4" s="8">
-        <v>0</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0</v>
-      </c>
-      <c r="E4" s="10">
-        <v>1100</v>
-      </c>
-      <c r="F4" s="8">
-        <v>100</v>
+      <c r="A4" s="7">
+        <v>0</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>0</v>
-      </c>
-      <c r="B5" s="8">
-        <v>0</v>
-      </c>
-      <c r="C5" s="8">
-        <v>0</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0</v>
-      </c>
-      <c r="E5" s="8">
-        <v>0</v>
-      </c>
-      <c r="F5" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
+      <c r="A5" s="7">
+        <v>0</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -805,10 +814,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -816,15 +825,15 @@
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
@@ -882,548 +891,663 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="9">
+      <c r="A2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8">
         <v>42005</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="10">
-        <v>10000</v>
-      </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8">
-        <v>0</v>
-      </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8">
-        <v>0</v>
-      </c>
-      <c r="L2" s="8">
-        <v>0</v>
-      </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="P2" s="8"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="9">
+        <v>5000</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7">
+        <v>0</v>
+      </c>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7">
+        <v>0</v>
+      </c>
+      <c r="L3" s="7">
+        <v>0</v>
+      </c>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B4" s="7">
         <v>31</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C4" s="8">
         <v>42036</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D4" s="8">
         <v>42036</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="8">
-        <v>785.8</v>
-      </c>
-      <c r="G3" s="11">
-        <v>9214.2000000000007</v>
-      </c>
-      <c r="H3" s="8">
-        <v>101.92</v>
-      </c>
-      <c r="I3" s="8">
-        <v>100</v>
-      </c>
-      <c r="J3" s="8">
-        <v>0</v>
-      </c>
-      <c r="K3" s="8">
+      <c r="E4" s="11"/>
+      <c r="F4" s="7">
+        <v>936.76</v>
+      </c>
+      <c r="G4" s="10">
+        <v>4063.24</v>
+      </c>
+      <c r="H4" s="7">
+        <v>50.96</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0</v>
+      </c>
+      <c r="K4" s="7">
         <v>987.72</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L4" s="7">
         <v>987.72</v>
       </c>
-      <c r="M3" s="8">
-        <v>0</v>
-      </c>
-      <c r="N3" s="8">
-        <v>0</v>
-      </c>
-      <c r="P3" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7">
+        <v>0</v>
+      </c>
+      <c r="P4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8">
+        <v>42064</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="9">
+        <v>5000</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0</v>
+      </c>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B6" s="7">
         <v>28</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C6" s="8">
         <v>42064</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8">
-        <v>802.9</v>
-      </c>
-      <c r="G4" s="11">
-        <v>8411.2999999999993</v>
-      </c>
-      <c r="H4" s="8">
-        <v>84.82</v>
-      </c>
-      <c r="I4" s="8">
-        <v>100</v>
-      </c>
-      <c r="J4" s="8">
-        <v>0</v>
-      </c>
-      <c r="K4" s="8">
-        <v>987.72</v>
-      </c>
-      <c r="L4" s="8">
-        <v>0</v>
-      </c>
-      <c r="M4" s="8">
-        <v>0</v>
-      </c>
-      <c r="N4" s="8">
-        <v>0</v>
-      </c>
-      <c r="P4" s="8">
-        <v>987.72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="D6" s="8">
+        <v>42064</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="7">
+        <v>850.32</v>
+      </c>
+      <c r="G6" s="10">
+        <v>8212.92</v>
+      </c>
+      <c r="H6" s="7">
+        <v>37.4</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0</v>
+      </c>
+      <c r="K6" s="7">
+        <v>887.72</v>
+      </c>
+      <c r="L6" s="7">
+        <v>887.72</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7">
+        <v>0</v>
+      </c>
+      <c r="P6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
         <v>3</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B7" s="7">
         <v>31</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C7" s="8">
         <v>42095</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8">
-        <v>793.81</v>
-      </c>
-      <c r="G5" s="11">
-        <v>7617.49</v>
-      </c>
-      <c r="H5" s="8">
-        <v>93.91</v>
-      </c>
-      <c r="I5" s="8">
-        <v>100</v>
-      </c>
-      <c r="J5" s="8">
-        <v>0</v>
-      </c>
-      <c r="K5" s="8">
-        <v>987.72</v>
-      </c>
-      <c r="L5" s="8">
-        <v>0</v>
-      </c>
-      <c r="M5" s="8">
-        <v>0</v>
-      </c>
-      <c r="N5" s="8">
-        <v>0</v>
-      </c>
-      <c r="P5" s="8">
-        <v>987.72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7">
+        <v>804.02</v>
+      </c>
+      <c r="G7" s="10">
+        <v>7408.9</v>
+      </c>
+      <c r="H7" s="7">
+        <v>83.7</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="7">
+        <v>887.72</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7">
+        <v>0</v>
+      </c>
+      <c r="P7" s="7">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
         <v>4</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B8" s="7">
         <v>30</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C8" s="8">
         <v>42125</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8">
-        <v>812.59</v>
-      </c>
-      <c r="G6" s="11">
-        <v>6804.9</v>
-      </c>
-      <c r="H6" s="8">
-        <v>75.13</v>
-      </c>
-      <c r="I6" s="8">
-        <v>100</v>
-      </c>
-      <c r="J6" s="8">
-        <v>0</v>
-      </c>
-      <c r="K6" s="8">
-        <v>987.72</v>
-      </c>
-      <c r="L6" s="8">
-        <v>0</v>
-      </c>
-      <c r="M6" s="8">
-        <v>0</v>
-      </c>
-      <c r="N6" s="8">
-        <v>0</v>
-      </c>
-      <c r="P6" s="8">
-        <v>987.72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7">
+        <v>814.65</v>
+      </c>
+      <c r="G8" s="10">
+        <v>6594.25</v>
+      </c>
+      <c r="H8" s="7">
+        <v>73.069999999999993</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0</v>
+      </c>
+      <c r="K8" s="7">
+        <v>887.72</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7">
+        <v>0</v>
+      </c>
+      <c r="P8" s="7">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
         <v>5</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B9" s="7">
         <v>31</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C9" s="8">
         <v>42156</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8">
-        <v>818.37</v>
-      </c>
-      <c r="G7" s="11">
-        <v>5986.53</v>
-      </c>
-      <c r="H7" s="8">
-        <v>69.349999999999994</v>
-      </c>
-      <c r="I7" s="8">
-        <v>100</v>
-      </c>
-      <c r="J7" s="8">
-        <v>0</v>
-      </c>
-      <c r="K7" s="8">
-        <v>987.72</v>
-      </c>
-      <c r="L7" s="8">
-        <v>0</v>
-      </c>
-      <c r="M7" s="8">
-        <v>0</v>
-      </c>
-      <c r="N7" s="8">
-        <v>0</v>
-      </c>
-      <c r="P7" s="8">
-        <v>987.72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7">
+        <v>820.51</v>
+      </c>
+      <c r="G9" s="10">
+        <v>5773.74</v>
+      </c>
+      <c r="H9" s="7">
+        <v>67.209999999999994</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0</v>
+      </c>
+      <c r="K9" s="7">
+        <v>887.72</v>
+      </c>
+      <c r="L9" s="7">
+        <v>0</v>
+      </c>
+      <c r="M9" s="7">
+        <v>0</v>
+      </c>
+      <c r="N9" s="7">
+        <v>0</v>
+      </c>
+      <c r="O9" s="7">
+        <v>0</v>
+      </c>
+      <c r="P9" s="7">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
         <v>6</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B10" s="7">
         <v>30</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C10" s="8">
         <v>42186</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8">
-        <v>828.67</v>
-      </c>
-      <c r="G8" s="11">
-        <v>5157.8599999999997</v>
-      </c>
-      <c r="H8" s="8">
-        <v>59.05</v>
-      </c>
-      <c r="I8" s="8">
-        <v>100</v>
-      </c>
-      <c r="J8" s="8">
-        <v>0</v>
-      </c>
-      <c r="K8" s="8">
-        <v>987.72</v>
-      </c>
-      <c r="L8" s="8">
-        <v>0</v>
-      </c>
-      <c r="M8" s="8">
-        <v>0</v>
-      </c>
-      <c r="N8" s="8">
-        <v>0</v>
-      </c>
-      <c r="P8" s="8">
-        <v>987.72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7">
+        <v>830.77</v>
+      </c>
+      <c r="G10" s="10">
+        <v>4942.97</v>
+      </c>
+      <c r="H10" s="7">
+        <v>56.95</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7">
+        <v>0</v>
+      </c>
+      <c r="K10" s="7">
+        <v>887.72</v>
+      </c>
+      <c r="L10" s="7">
+        <v>0</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7">
+        <v>0</v>
+      </c>
+      <c r="P10" s="7">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
         <v>7</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B11" s="7">
         <v>31</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C11" s="8">
         <v>42217</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8">
-        <v>835.15</v>
-      </c>
-      <c r="G9" s="11">
-        <v>4322.71</v>
-      </c>
-      <c r="H9" s="8">
-        <v>52.57</v>
-      </c>
-      <c r="I9" s="8">
-        <v>100</v>
-      </c>
-      <c r="J9" s="8">
-        <v>0</v>
-      </c>
-      <c r="K9" s="8">
-        <v>987.72</v>
-      </c>
-      <c r="L9" s="8">
-        <v>0</v>
-      </c>
-      <c r="M9" s="8">
-        <v>0</v>
-      </c>
-      <c r="N9" s="8">
-        <v>0</v>
-      </c>
-      <c r="P9" s="8">
-        <v>987.72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7">
+        <v>837.34</v>
+      </c>
+      <c r="G11" s="10">
+        <v>4105.63</v>
+      </c>
+      <c r="H11" s="7">
+        <v>50.38</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7">
+        <v>0</v>
+      </c>
+      <c r="K11" s="7">
+        <v>887.72</v>
+      </c>
+      <c r="L11" s="7">
+        <v>0</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7">
+        <v>0</v>
+      </c>
+      <c r="P11" s="7">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
         <v>8</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B12" s="7">
         <v>31</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C12" s="8">
         <v>42248</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8">
-        <v>843.66</v>
-      </c>
-      <c r="G10" s="11">
-        <v>3479.05</v>
-      </c>
-      <c r="H10" s="8">
-        <v>44.06</v>
-      </c>
-      <c r="I10" s="8">
-        <v>100</v>
-      </c>
-      <c r="J10" s="8">
-        <v>0</v>
-      </c>
-      <c r="K10" s="8">
-        <v>987.72</v>
-      </c>
-      <c r="L10" s="8">
-        <v>0</v>
-      </c>
-      <c r="M10" s="8">
-        <v>0</v>
-      </c>
-      <c r="N10" s="8">
-        <v>0</v>
-      </c>
-      <c r="P10" s="8">
-        <v>987.72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7">
+        <v>845.88</v>
+      </c>
+      <c r="G12" s="10">
+        <v>3259.75</v>
+      </c>
+      <c r="H12" s="7">
+        <v>41.84</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7">
+        <v>0</v>
+      </c>
+      <c r="K12" s="7">
+        <v>887.72</v>
+      </c>
+      <c r="L12" s="7">
+        <v>0</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7">
+        <v>0</v>
+      </c>
+      <c r="P12" s="7">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
         <v>9</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B13" s="7">
         <v>30</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C13" s="8">
         <v>42278</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8">
-        <v>853.41</v>
-      </c>
-      <c r="G11" s="11">
-        <v>2625.64</v>
-      </c>
-      <c r="H11" s="8">
-        <v>34.31</v>
-      </c>
-      <c r="I11" s="8">
-        <v>100</v>
-      </c>
-      <c r="J11" s="8">
-        <v>0</v>
-      </c>
-      <c r="K11" s="8">
-        <v>987.72</v>
-      </c>
-      <c r="L11" s="8">
-        <v>0</v>
-      </c>
-      <c r="M11" s="8">
-        <v>0</v>
-      </c>
-      <c r="N11" s="8">
-        <v>0</v>
-      </c>
-      <c r="P11" s="8">
-        <v>987.72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7">
+        <v>855.57</v>
+      </c>
+      <c r="G13" s="10">
+        <v>2404.1799999999998</v>
+      </c>
+      <c r="H13" s="7">
+        <v>32.15</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7">
+        <v>0</v>
+      </c>
+      <c r="K13" s="7">
+        <v>887.72</v>
+      </c>
+      <c r="L13" s="7">
+        <v>0</v>
+      </c>
+      <c r="M13" s="7">
+        <v>0</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="7">
+        <v>0</v>
+      </c>
+      <c r="P13" s="7">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
         <v>10</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B14" s="7">
         <v>31</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C14" s="8">
         <v>42309</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8">
-        <v>860.96</v>
-      </c>
-      <c r="G12" s="11">
-        <v>1764.68</v>
-      </c>
-      <c r="H12" s="8">
-        <v>26.76</v>
-      </c>
-      <c r="I12" s="8">
-        <v>100</v>
-      </c>
-      <c r="J12" s="8">
-        <v>0</v>
-      </c>
-      <c r="K12" s="8">
-        <v>987.72</v>
-      </c>
-      <c r="L12" s="8">
-        <v>0</v>
-      </c>
-      <c r="M12" s="8">
-        <v>0</v>
-      </c>
-      <c r="N12" s="8">
-        <v>0</v>
-      </c>
-      <c r="P12" s="8">
-        <v>987.72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7">
+        <v>863.22</v>
+      </c>
+      <c r="G14" s="10">
+        <v>1540.96</v>
+      </c>
+      <c r="H14" s="7">
+        <v>24.5</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7">
+        <v>0</v>
+      </c>
+      <c r="K14" s="7">
+        <v>887.72</v>
+      </c>
+      <c r="L14" s="7">
+        <v>0</v>
+      </c>
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7">
+        <v>0</v>
+      </c>
+      <c r="P14" s="7">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
         <v>11</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B15" s="7">
         <v>30</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C15" s="8">
         <v>42339</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8">
-        <v>870.31</v>
-      </c>
-      <c r="G13" s="8">
-        <v>894.37</v>
-      </c>
-      <c r="H13" s="8">
-        <v>17.41</v>
-      </c>
-      <c r="I13" s="8">
-        <v>100</v>
-      </c>
-      <c r="J13" s="8">
-        <v>0</v>
-      </c>
-      <c r="K13" s="8">
-        <v>987.72</v>
-      </c>
-      <c r="L13" s="8">
-        <v>0</v>
-      </c>
-      <c r="M13" s="8">
-        <v>0</v>
-      </c>
-      <c r="N13" s="8">
-        <v>0</v>
-      </c>
-      <c r="P13" s="8">
-        <v>987.72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7">
+        <v>872.52</v>
+      </c>
+      <c r="G15" s="7">
+        <v>668.44</v>
+      </c>
+      <c r="H15" s="7">
+        <v>15.2</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0</v>
+      </c>
+      <c r="J15" s="7">
+        <v>0</v>
+      </c>
+      <c r="K15" s="7">
+        <v>887.72</v>
+      </c>
+      <c r="L15" s="7">
+        <v>0</v>
+      </c>
+      <c r="M15" s="7">
+        <v>0</v>
+      </c>
+      <c r="N15" s="7">
+        <v>0</v>
+      </c>
+      <c r="O15" s="7">
+        <v>0</v>
+      </c>
+      <c r="P15" s="7">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
         <v>12</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B16" s="7">
         <v>31</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C16" s="8">
         <v>42370</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8">
-        <v>894.37</v>
-      </c>
-      <c r="G14" s="8">
-        <v>0</v>
-      </c>
-      <c r="H14" s="8">
-        <v>9.1199999999999992</v>
-      </c>
-      <c r="I14" s="8">
-        <v>100</v>
-      </c>
-      <c r="J14" s="8">
-        <v>0</v>
-      </c>
-      <c r="K14" s="11">
-        <v>1003.49</v>
-      </c>
-      <c r="L14" s="8">
-        <v>0</v>
-      </c>
-      <c r="M14" s="8">
-        <v>0</v>
-      </c>
-      <c r="N14" s="8">
-        <v>0</v>
-      </c>
-      <c r="P14" s="11">
-        <v>1003.49</v>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7">
+        <v>668.44</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0</v>
+      </c>
+      <c r="H16" s="7">
+        <v>6.81</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7">
+        <v>0</v>
+      </c>
+      <c r="K16" s="7">
+        <v>675.25</v>
+      </c>
+      <c r="L16" s="7">
+        <v>0</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7">
+        <v>0</v>
+      </c>
+      <c r="P16" s="7">
+        <v>675.25</v>
       </c>
     </row>
   </sheetData>
@@ -1434,10 +1558,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD9"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1488,70 +1612,140 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
-        <v>216</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="7">
+        <v>195</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="8">
+        <v>42064</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="7">
+        <v>887.72</v>
+      </c>
+      <c r="F2" s="7">
+        <v>850.32</v>
+      </c>
+      <c r="G2" s="7">
+        <v>37.4</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0</v>
+      </c>
+      <c r="J2" s="10">
+        <v>8212.92</v>
+      </c>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>190</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="8">
+        <v>42064</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="9">
+        <v>5000</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0</v>
+      </c>
+      <c r="J3" s="10">
+        <v>9063.24</v>
+      </c>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>194</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="8">
         <v>42036</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E4" s="7">
         <v>987.72</v>
       </c>
-      <c r="F2" s="8">
-        <v>785.8</v>
-      </c>
-      <c r="G2" s="8">
-        <v>101.92</v>
-      </c>
-      <c r="H2" s="8">
-        <v>100</v>
-      </c>
-      <c r="I2" s="8">
-        <v>0</v>
-      </c>
-      <c r="J2" s="11">
-        <v>9214.2000000000007</v>
-      </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>213</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="F4" s="7">
+        <v>936.76</v>
+      </c>
+      <c r="G4" s="7">
+        <v>50.96</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="10">
+        <v>4063.24</v>
+      </c>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>184</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C5" s="8">
         <v>42005</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="10">
-        <v>10000</v>
-      </c>
-      <c r="F3" s="8">
-        <v>0</v>
-      </c>
-      <c r="G3" s="8">
-        <v>0</v>
-      </c>
-      <c r="H3" s="8">
-        <v>0</v>
-      </c>
-      <c r="I3" s="8">
-        <v>0</v>
-      </c>
-      <c r="J3" s="10">
-        <v>10000</v>
-      </c>
+      <c r="E5" s="9">
+        <v>5000</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9">
+        <v>5000</v>
+      </c>
+      <c r="K5"/>
+      <c r="L5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1563,37 +1757,37 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I3"/>
+      <selection activeCell="I10" sqref="I10:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="17" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1602,13 +1796,13 @@
         <v>3640</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="18">
+        <v>45</v>
+      </c>
+      <c r="C2" s="16">
         <v>42005</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
         <v>36</v>
@@ -1620,7 +1814,7 @@
         <v>38</v>
       </c>
       <c r="H2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1628,13 +1822,13 @@
         <v>3641</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="18">
+        <v>45</v>
+      </c>
+      <c r="C3" s="16">
         <v>42005</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
         <v>36</v>
@@ -1646,7 +1840,7 @@
         <v>37</v>
       </c>
       <c r="I3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1656,63 +1850,63 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="A1:I5"/>
+      <selection activeCell="A5" sqref="A5:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="14"/>
-    <col min="2" max="2" width="17" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="9.140625" style="14"/>
-    <col min="7" max="7" width="21.85546875" style="14" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="14"/>
+    <col min="1" max="1" width="9.140625" style="13"/>
+    <col min="2" max="2" width="17" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="9.140625" style="13"/>
+    <col min="7" max="7" width="21.85546875" style="13" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>9</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="15">
         <v>42036</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>36</v>
@@ -1725,89 +1919,62 @@
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="15">
         <v>42036</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>35</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="15">
         <v>42036</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>35</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>12</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="16">
-        <v>42036</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" s="4"/>
+      <c r="H4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1818,38 +1985,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="17" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1858,13 +2025,13 @@
         <v>3640</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="18">
+        <v>45</v>
+      </c>
+      <c r="C2" s="16">
         <v>42005</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
         <v>36</v>
@@ -1876,7 +2043,7 @@
         <v>38</v>
       </c>
       <c r="H2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1884,13 +2051,13 @@
         <v>3641</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="18">
+        <v>45</v>
+      </c>
+      <c r="C3" s="16">
         <v>42005</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
         <v>36</v>
@@ -1902,7 +2069,7 @@
         <v>37</v>
       </c>
       <c r="I3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1912,40 +2079,50 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I5"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="12" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1956,11 +2133,11 @@
       <c r="B2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="15">
         <v>42036</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>36</v>
@@ -1973,7 +2150,7 @@
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1983,79 +2160,52 @@
       <c r="B3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="15">
         <v>42036</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>35</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="15">
         <v>42036</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>35</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>12</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="16">
-        <v>42036</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" s="4"/>
+      <c r="H4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mifos Automation Excels/Client/3130-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-OVERDUE-FEE-FLAT-Regular-CASH-Makerepayment2.xlsx
+++ b/Mifos Automation Excels/Client/3130-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-OVERDUE-FEE-FLAT-Regular-CASH-Makerepayment2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="734" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="58">
   <si>
     <t>#</t>
   </si>
@@ -149,9 +149,6 @@
     <t>Income from interest(7)</t>
   </si>
   <si>
-    <t>$ 987.72</t>
-  </si>
-  <si>
     <t>L216</t>
   </si>
   <si>
@@ -173,29 +170,38 @@
     <t>$ 5,000</t>
   </si>
   <si>
-    <t>$ 936.76</t>
-  </si>
-  <si>
-    <t>$ 50.96</t>
-  </si>
-  <si>
-    <t>$ 887.72</t>
-  </si>
-  <si>
-    <t>$ 37.4</t>
-  </si>
-  <si>
-    <t>$ 850.32</t>
-  </si>
-  <si>
     <t>repaymenttransactionamount</t>
+  </si>
+  <si>
+    <t>Income from penalties(8)</t>
+  </si>
+  <si>
+    <t>$ 100</t>
+  </si>
+  <si>
+    <t>$ 987.72</t>
+  </si>
+  <si>
+    <t>$ 836.76</t>
+  </si>
+  <si>
+    <t>$ 50.96</t>
+  </si>
+  <si>
+    <t>$ 849.4</t>
+  </si>
+  <si>
+    <t>$ 38.32</t>
+  </si>
+  <si>
+    <t>Income from penalties(9)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,14 +222,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -303,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -343,9 +341,6 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -650,7 +645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -662,15 +657,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="18">
         <v>42064</v>
@@ -678,9 +673,9 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="20">
+        <v>49</v>
+      </c>
+      <c r="B3" s="19">
         <v>987.72</v>
       </c>
     </row>
@@ -693,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD14"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,14 +728,14 @@
         <v>10000</v>
       </c>
       <c r="B2" s="10">
-        <v>1787.08</v>
+        <v>1686.16</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7">
         <v>0</v>
       </c>
       <c r="E2" s="10">
-        <v>8212.92</v>
+        <v>8313.84</v>
       </c>
       <c r="F2" s="7">
         <v>0</v>
@@ -748,10 +743,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>540.16999999999996</v>
+        <v>551.74</v>
       </c>
       <c r="B3" s="7">
-        <v>88.36</v>
+        <v>89.28</v>
       </c>
       <c r="C3" s="7">
         <v>0</v>
@@ -760,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="7">
-        <v>451.81</v>
+        <v>462.46</v>
       </c>
       <c r="F3" s="7">
         <v>0</v>
@@ -788,10 +783,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="B5" s="7">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -814,10 +809,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+      <selection activeCell="L3" sqref="F3:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -891,179 +886,177 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8">
+        <v>42005</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="9">
+        <v>5000</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7">
+        <v>0</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7">
+        <v>0</v>
+      </c>
+      <c r="L2" s="7">
+        <v>0</v>
+      </c>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="B3" s="7">
+        <v>31</v>
+      </c>
+      <c r="C3" s="8">
+        <v>42036</v>
+      </c>
+      <c r="D3" s="8">
+        <v>42036</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="7">
+        <v>836.76</v>
+      </c>
+      <c r="G3" s="10">
+        <v>4163.24</v>
+      </c>
+      <c r="H3" s="7">
+        <v>50.96</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0</v>
+      </c>
+      <c r="J3" s="7">
+        <v>100</v>
+      </c>
+      <c r="K3" s="7">
+        <v>987.72</v>
+      </c>
+      <c r="L3" s="7">
+        <v>987.72</v>
+      </c>
+      <c r="M3" s="7">
+        <v>0</v>
+      </c>
+      <c r="N3" s="7">
+        <v>0</v>
+      </c>
+      <c r="O3" s="7">
+        <v>0</v>
+      </c>
+      <c r="P3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8">
+        <v>42064</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="9">
+        <v>5000</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7">
+        <v>0</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0</v>
+      </c>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="D2" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="P2" s="19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8">
-        <v>42005</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="9">
-        <v>5000</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7">
-        <v>0</v>
-      </c>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7">
-        <v>0</v>
-      </c>
-      <c r="L3" s="7">
-        <v>0</v>
-      </c>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>1</v>
-      </c>
-      <c r="B4" s="7">
-        <v>31</v>
-      </c>
-      <c r="C4" s="8">
-        <v>42036</v>
-      </c>
-      <c r="D4" s="8">
-        <v>42036</v>
-      </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="7">
-        <v>936.76</v>
-      </c>
-      <c r="G4" s="10">
-        <v>4063.24</v>
-      </c>
-      <c r="H4" s="7">
-        <v>50.96</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7">
-        <v>0</v>
-      </c>
-      <c r="K4" s="7">
-        <v>987.72</v>
-      </c>
-      <c r="L4" s="7">
-        <v>987.72</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7">
-        <v>0</v>
-      </c>
-      <c r="P4" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
+      <c r="B5" s="7">
+        <v>28</v>
+      </c>
       <c r="C5" s="8">
         <v>42064</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="9">
-        <v>5000</v>
-      </c>
-      <c r="H5" s="7"/>
+      <c r="D5" s="8">
+        <v>42064</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="7">
+        <v>849.4</v>
+      </c>
+      <c r="G5" s="10">
+        <v>8313.84</v>
+      </c>
+      <c r="H5" s="7">
+        <v>38.32</v>
+      </c>
       <c r="I5" s="7">
         <v>0</v>
       </c>
-      <c r="J5" s="7"/>
+      <c r="J5" s="7">
+        <v>100</v>
+      </c>
       <c r="K5" s="7">
-        <v>0</v>
+        <v>987.72</v>
       </c>
       <c r="L5" s="7">
-        <v>0</v>
-      </c>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
+        <v>987.72</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7">
+        <v>0</v>
+      </c>
+      <c r="P5" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" s="7">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C6" s="8">
-        <v>42064</v>
-      </c>
-      <c r="D6" s="8">
-        <v>42064</v>
-      </c>
-      <c r="E6" s="11"/>
+        <v>42095</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
       <c r="F6" s="7">
-        <v>850.32</v>
+        <v>802.99</v>
       </c>
       <c r="G6" s="10">
-        <v>8212.92</v>
+        <v>7510.85</v>
       </c>
       <c r="H6" s="7">
-        <v>37.4</v>
+        <v>84.73</v>
       </c>
       <c r="I6" s="7">
         <v>0</v>
@@ -1075,41 +1068,41 @@
         <v>887.72</v>
       </c>
       <c r="L6" s="7">
+        <v>0</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7">
+        <v>0</v>
+      </c>
+      <c r="P6" s="7">
         <v>887.72</v>
-      </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7">
-        <v>0</v>
-      </c>
-      <c r="P6" s="7">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="8">
-        <v>42095</v>
+        <v>42125</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7">
-        <v>804.02</v>
+        <v>813.64</v>
       </c>
       <c r="G7" s="10">
-        <v>7408.9</v>
+        <v>6697.21</v>
       </c>
       <c r="H7" s="7">
-        <v>83.7</v>
+        <v>74.08</v>
       </c>
       <c r="I7" s="7">
         <v>0</v>
@@ -1138,24 +1131,24 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" s="8">
-        <v>42125</v>
+        <v>42156</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7">
-        <v>814.65</v>
+        <v>819.46</v>
       </c>
       <c r="G8" s="10">
-        <v>6594.25</v>
+        <v>5877.75</v>
       </c>
       <c r="H8" s="7">
-        <v>73.069999999999993</v>
+        <v>68.260000000000005</v>
       </c>
       <c r="I8" s="7">
         <v>0</v>
@@ -1184,24 +1177,24 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="8">
-        <v>42156</v>
+        <v>42186</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7">
-        <v>820.51</v>
-      </c>
-      <c r="G9" s="10">
-        <v>5773.74</v>
+        <v>829.75</v>
+      </c>
+      <c r="G9" s="9">
+        <v>5048</v>
       </c>
       <c r="H9" s="7">
-        <v>67.209999999999994</v>
+        <v>57.97</v>
       </c>
       <c r="I9" s="7">
         <v>0</v>
@@ -1230,24 +1223,24 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" s="8">
-        <v>42186</v>
+        <v>42217</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7">
-        <v>830.77</v>
+        <v>836.27</v>
       </c>
       <c r="G10" s="10">
-        <v>4942.97</v>
+        <v>4211.7299999999996</v>
       </c>
       <c r="H10" s="7">
-        <v>56.95</v>
+        <v>51.45</v>
       </c>
       <c r="I10" s="7">
         <v>0</v>
@@ -1276,24 +1269,24 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11" s="7">
         <v>31</v>
       </c>
       <c r="C11" s="8">
-        <v>42217</v>
+        <v>42248</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7">
-        <v>837.34</v>
+        <v>844.79</v>
       </c>
       <c r="G11" s="10">
-        <v>4105.63</v>
+        <v>3366.94</v>
       </c>
       <c r="H11" s="7">
-        <v>50.38</v>
+        <v>42.93</v>
       </c>
       <c r="I11" s="7">
         <v>0</v>
@@ -1322,24 +1315,24 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="8">
-        <v>42248</v>
+        <v>42278</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7">
-        <v>845.88</v>
+        <v>854.51</v>
       </c>
       <c r="G12" s="10">
-        <v>3259.75</v>
+        <v>2512.4299999999998</v>
       </c>
       <c r="H12" s="7">
-        <v>41.84</v>
+        <v>33.21</v>
       </c>
       <c r="I12" s="7">
         <v>0</v>
@@ -1368,24 +1361,24 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" s="8">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7">
-        <v>855.57</v>
+        <v>862.11</v>
       </c>
       <c r="G13" s="10">
-        <v>2404.1799999999998</v>
+        <v>1650.32</v>
       </c>
       <c r="H13" s="7">
-        <v>32.15</v>
+        <v>25.61</v>
       </c>
       <c r="I13" s="7">
         <v>0</v>
@@ -1414,24 +1407,24 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="8">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7">
-        <v>863.22</v>
-      </c>
-      <c r="G14" s="10">
-        <v>1540.96</v>
+        <v>871.44</v>
+      </c>
+      <c r="G14" s="7">
+        <v>778.88</v>
       </c>
       <c r="H14" s="7">
-        <v>24.5</v>
+        <v>16.28</v>
       </c>
       <c r="I14" s="7">
         <v>0</v>
@@ -1460,24 +1453,24 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B15" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15" s="8">
-        <v>42339</v>
+        <v>42370</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7">
-        <v>872.52</v>
+        <v>778.88</v>
       </c>
       <c r="G15" s="7">
-        <v>668.44</v>
+        <v>0</v>
       </c>
       <c r="H15" s="7">
-        <v>15.2</v>
+        <v>7.94</v>
       </c>
       <c r="I15" s="7">
         <v>0</v>
@@ -1486,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="7">
-        <v>887.72</v>
+        <v>786.82</v>
       </c>
       <c r="L15" s="7">
         <v>0</v>
@@ -1501,53 +1494,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="7">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
-        <v>12</v>
-      </c>
-      <c r="B16" s="7">
-        <v>31</v>
-      </c>
-      <c r="C16" s="8">
-        <v>42370</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7">
-        <v>668.44</v>
-      </c>
-      <c r="G16" s="7">
-        <v>0</v>
-      </c>
-      <c r="H16" s="7">
-        <v>6.81</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7">
-        <v>0</v>
-      </c>
-      <c r="K16" s="7">
-        <v>675.25</v>
-      </c>
-      <c r="L16" s="7">
-        <v>0</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7">
-        <v>0</v>
-      </c>
-      <c r="P16" s="7">
-        <v>675.25</v>
+        <v>786.82</v>
       </c>
     </row>
   </sheetData>
@@ -1561,7 +1508,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A8" sqref="A2:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1625,29 +1572,29 @@
         <v>39</v>
       </c>
       <c r="E2" s="7">
-        <v>887.72</v>
+        <v>987.72</v>
       </c>
       <c r="F2" s="7">
-        <v>850.32</v>
+        <v>849.4</v>
       </c>
       <c r="G2" s="7">
-        <v>37.4</v>
+        <v>38.32</v>
       </c>
       <c r="H2" s="7">
         <v>0</v>
       </c>
       <c r="I2" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J2" s="10">
-        <v>8212.92</v>
+        <v>8313.84</v>
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>27</v>
@@ -1674,14 +1621,14 @@
         <v>0</v>
       </c>
       <c r="J3" s="10">
-        <v>9063.24</v>
+        <v>9163.24</v>
       </c>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>27</v>
@@ -1696,7 +1643,7 @@
         <v>987.72</v>
       </c>
       <c r="F4" s="7">
-        <v>936.76</v>
+        <v>836.76</v>
       </c>
       <c r="G4" s="7">
         <v>50.96</v>
@@ -1705,17 +1652,17 @@
         <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J4" s="10">
-        <v>4063.24</v>
+        <v>4163.24</v>
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>27</v>
@@ -1796,13 +1743,13 @@
         <v>3640</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="16">
         <v>42005</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
         <v>36</v>
@@ -1814,7 +1761,7 @@
         <v>38</v>
       </c>
       <c r="H2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1822,13 +1769,13 @@
         <v>3641</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="16">
         <v>42005</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
         <v>36</v>
@@ -1840,7 +1787,7 @@
         <v>37</v>
       </c>
       <c r="I3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1850,10 +1797,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD16"/>
+      <selection activeCell="A2" sqref="A2:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1895,7 +1842,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>9</v>
       </c>
@@ -1906,7 +1853,7 @@
         <v>42036</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>36</v>
@@ -1918,11 +1865,11 @@
         <v>38</v>
       </c>
       <c r="H2" s="4"/>
-      <c r="I2" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I2" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>10</v>
       </c>
@@ -1933,7 +1880,7 @@
         <v>42036</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>40</v>
@@ -1946,12 +1893,12 @@
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>27</v>
@@ -1960,21 +1907,48 @@
         <v>42036</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>35</v>
       </c>
       <c r="G4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="15">
+        <v>42036</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="4"/>
+      <c r="H5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2025,13 +1999,13 @@
         <v>3640</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="16">
         <v>42005</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
         <v>36</v>
@@ -2043,7 +2017,7 @@
         <v>38</v>
       </c>
       <c r="H2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2051,13 +2025,13 @@
         <v>3641</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="16">
         <v>42005</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
         <v>36</v>
@@ -2069,7 +2043,7 @@
         <v>37</v>
       </c>
       <c r="I3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2079,10 +2053,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2137,7 +2111,7 @@
         <v>42036</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>36</v>
@@ -2149,8 +2123,8 @@
         <v>38</v>
       </c>
       <c r="H2" s="4"/>
-      <c r="I2" s="4" t="s">
-        <v>54</v>
+      <c r="I2" s="14" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2164,7 +2138,7 @@
         <v>42036</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>40</v>
@@ -2177,12 +2151,12 @@
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>27</v>
@@ -2191,21 +2165,48 @@
         <v>42036</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>35</v>
       </c>
       <c r="G4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="15">
+        <v>42036</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="4"/>
+      <c r="I5" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mifos Automation Excels/Client/3130-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-OVERDUE-FEE-FLAT-Regular-CASH-Makerepayment2.xlsx
+++ b/Mifos Automation Excels/Client/3130-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-OVERDUE-FEE-FLAT-Regular-CASH-Makerepayment2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="734" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="767" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="57">
   <si>
     <t>#</t>
   </si>
@@ -149,9 +149,6 @@
     <t>Income from interest(7)</t>
   </si>
   <si>
-    <t>L216</t>
-  </si>
-  <si>
     <t>L3193</t>
   </si>
   <si>
@@ -170,10 +167,16 @@
     <t>$ 5,000</t>
   </si>
   <si>
-    <t>repaymenttransactionamount</t>
-  </si>
-  <si>
-    <t>Income from penalties(8)</t>
+    <t>L640</t>
+  </si>
+  <si>
+    <t>$ 836.76</t>
+  </si>
+  <si>
+    <t>$ 50.96</t>
+  </si>
+  <si>
+    <t>Income from penalties(9)</t>
   </si>
   <si>
     <t>$ 100</t>
@@ -182,19 +185,13 @@
     <t>$ 987.72</t>
   </si>
   <si>
-    <t>$ 836.76</t>
-  </si>
-  <si>
-    <t>$ 50.96</t>
+    <t>L1675</t>
   </si>
   <si>
     <t>$ 849.4</t>
   </si>
   <si>
     <t>$ 38.32</t>
-  </si>
-  <si>
-    <t>Income from penalties(9)</t>
   </si>
 </sst>
 </file>
@@ -301,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -332,16 +329,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -643,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,26 +658,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="18">
+        <v>46</v>
+      </c>
+      <c r="B2" s="17">
         <v>42064</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="19">
-        <v>987.72</v>
       </c>
     </row>
   </sheetData>
@@ -688,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,7 +805,7 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L3" sqref="F3:L3"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -827,8 +820,8 @@
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
@@ -911,7 +904,6 @@
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
@@ -952,9 +944,6 @@
         <v>0</v>
       </c>
       <c r="N3" s="7">
-        <v>0</v>
-      </c>
-      <c r="O3" s="7">
         <v>0</v>
       </c>
       <c r="P3" s="7">
@@ -986,7 +975,6 @@
       </c>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
       <c r="P4" s="7"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -1028,9 +1016,6 @@
         <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7">
         <v>0</v>
       </c>
       <c r="P5" s="7">
@@ -1076,9 +1061,6 @@
       <c r="N6" s="7">
         <v>0</v>
       </c>
-      <c r="O6" s="7">
-        <v>0</v>
-      </c>
       <c r="P6" s="7">
         <v>887.72</v>
       </c>
@@ -1122,9 +1104,6 @@
       <c r="N7" s="7">
         <v>0</v>
       </c>
-      <c r="O7" s="7">
-        <v>0</v>
-      </c>
       <c r="P7" s="7">
         <v>887.72</v>
       </c>
@@ -1168,9 +1147,6 @@
       <c r="N8" s="7">
         <v>0</v>
       </c>
-      <c r="O8" s="7">
-        <v>0</v>
-      </c>
       <c r="P8" s="7">
         <v>887.72</v>
       </c>
@@ -1214,9 +1190,6 @@
       <c r="N9" s="7">
         <v>0</v>
       </c>
-      <c r="O9" s="7">
-        <v>0</v>
-      </c>
       <c r="P9" s="7">
         <v>887.72</v>
       </c>
@@ -1260,9 +1233,6 @@
       <c r="N10" s="7">
         <v>0</v>
       </c>
-      <c r="O10" s="7">
-        <v>0</v>
-      </c>
       <c r="P10" s="7">
         <v>887.72</v>
       </c>
@@ -1306,9 +1276,6 @@
       <c r="N11" s="7">
         <v>0</v>
       </c>
-      <c r="O11" s="7">
-        <v>0</v>
-      </c>
       <c r="P11" s="7">
         <v>887.72</v>
       </c>
@@ -1352,9 +1319,6 @@
       <c r="N12" s="7">
         <v>0</v>
       </c>
-      <c r="O12" s="7">
-        <v>0</v>
-      </c>
       <c r="P12" s="7">
         <v>887.72</v>
       </c>
@@ -1398,9 +1362,6 @@
       <c r="N13" s="7">
         <v>0</v>
       </c>
-      <c r="O13" s="7">
-        <v>0</v>
-      </c>
       <c r="P13" s="7">
         <v>887.72</v>
       </c>
@@ -1444,9 +1405,6 @@
       <c r="N14" s="7">
         <v>0</v>
       </c>
-      <c r="O14" s="7">
-        <v>0</v>
-      </c>
       <c r="P14" s="7">
         <v>887.72</v>
       </c>
@@ -1488,9 +1446,6 @@
         <v>0</v>
       </c>
       <c r="N15" s="7">
-        <v>0</v>
-      </c>
-      <c r="O15" s="7">
         <v>0</v>
       </c>
       <c r="P15" s="7">
@@ -1508,12 +1463,12 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A2:XFD8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.140625" style="5" bestFit="1" customWidth="1"/>
@@ -1560,7 +1515,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
-        <v>195</v>
+        <v>1675</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>27</v>
@@ -1594,7 +1549,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>191</v>
+        <v>1671</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>27</v>
@@ -1628,7 +1583,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
-        <v>189</v>
+        <v>640</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>27</v>
@@ -1662,7 +1617,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>180</v>
+        <v>632</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>27</v>
@@ -1704,37 +1659,40 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10:I11"/>
+      <selection activeCell="H2" sqref="H2:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="16" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1743,13 +1701,13 @@
         <v>3640</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="16">
+        <v>43</v>
+      </c>
+      <c r="C2" s="15">
         <v>42005</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
         <v>36</v>
@@ -1760,22 +1718,23 @@
       <c r="G2" t="s">
         <v>38</v>
       </c>
-      <c r="H2" t="s">
-        <v>48</v>
-      </c>
+      <c r="H2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3641</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="16">
+        <v>43</v>
+      </c>
+      <c r="C3" s="15">
         <v>42005</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
         <v>36</v>
@@ -1786,8 +1745,9 @@
       <c r="G3" t="s">
         <v>37</v>
       </c>
-      <c r="I3" t="s">
-        <v>48</v>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1800,7 +1760,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1844,16 +1804,16 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>9</v>
+        <v>1053</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="14">
         <v>42036</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>36</v>
@@ -1864,23 +1824,23 @@
       <c r="G2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="14" t="s">
-        <v>53</v>
+      <c r="H2" s="18"/>
+      <c r="I2" s="19" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>10</v>
+        <v>1054</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <v>42036</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>40</v>
@@ -1891,23 +1851,23 @@
       <c r="G3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4" t="s">
-        <v>54</v>
+      <c r="H3" s="18"/>
+      <c r="I3" s="19" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>11</v>
+        <v>1055</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <v>42036</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>40</v>
@@ -1916,25 +1876,25 @@
         <v>35</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14" t="s">
         <v>51</v>
+      </c>
+      <c r="H4" s="18"/>
+      <c r="I4" s="19" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>12</v>
+        <v>1056</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <v>42036</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>36</v>
@@ -1945,10 +1905,10 @@
       <c r="G5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I5" s="4"/>
+      <c r="H5" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1960,37 +1920,40 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7:J8"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="16" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1999,13 +1962,13 @@
         <v>3640</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="16">
+        <v>43</v>
+      </c>
+      <c r="C2" s="15">
         <v>42005</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
         <v>36</v>
@@ -2016,22 +1979,23 @@
       <c r="G2" t="s">
         <v>38</v>
       </c>
-      <c r="H2" t="s">
-        <v>48</v>
-      </c>
+      <c r="H2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3641</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="16">
+        <v>43</v>
+      </c>
+      <c r="C3" s="15">
         <v>42005</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
         <v>36</v>
@@ -2042,8 +2006,9 @@
       <c r="G3" t="s">
         <v>37</v>
       </c>
-      <c r="I3" t="s">
-        <v>48</v>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2056,19 +2021,12 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -2102,16 +2060,16 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>9</v>
+        <v>3090</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="15">
-        <v>42036</v>
+      <c r="C2" s="14">
+        <v>42064</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>36</v>
@@ -2122,23 +2080,23 @@
       <c r="G2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="14" t="s">
+      <c r="H2" s="20"/>
+      <c r="I2" s="21" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>10</v>
+        <v>3091</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="15">
-        <v>42036</v>
+      <c r="C3" s="14">
+        <v>42064</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>40</v>
@@ -2149,23 +2107,23 @@
       <c r="G3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4" t="s">
+      <c r="H3" s="20"/>
+      <c r="I3" s="21" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>11</v>
+        <v>3092</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="15">
-        <v>42036</v>
+      <c r="C4" s="14">
+        <v>42064</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>40</v>
@@ -2174,25 +2132,25 @@
         <v>35</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14" t="s">
         <v>51</v>
+      </c>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>12</v>
+        <v>3093</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="15">
-        <v>42036</v>
+      <c r="C5" s="14">
+        <v>42064</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>36</v>
@@ -2203,10 +2161,10 @@
       <c r="G5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I5" s="4"/>
+      <c r="H5" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mifos Automation Excels/Client/3130-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-OVERDUE-FEE-FLAT-Regular-CASH-Makerepayment2.xlsx
+++ b/Mifos Automation Excels/Client/3130-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-OVERDUE-FEE-FLAT-Regular-CASH-Makerepayment2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="767" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="767" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -802,10 +802,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -823,12 +823,13 @@
     <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="20" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -868,17 +869,18 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="8">
@@ -904,8 +906,9 @@
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P2" s="7"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -943,14 +946,15 @@
       <c r="M3" s="7">
         <v>0</v>
       </c>
-      <c r="N3" s="7">
-        <v>0</v>
-      </c>
-      <c r="P3" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N3" s="7"/>
+      <c r="O3" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8">
@@ -975,9 +979,10 @@
       </c>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
-      <c r="P4" s="7"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O4" s="7"/>
+      <c r="Q4" s="7"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -1015,14 +1020,15 @@
       <c r="M5" s="7">
         <v>0</v>
       </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="P5" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N5" s="7"/>
+      <c r="O5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>3</v>
       </c>
@@ -1058,14 +1064,15 @@
       <c r="M6" s="7">
         <v>0</v>
       </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="P6" s="7">
+      <c r="N6" s="7"/>
+      <c r="O6" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>4</v>
       </c>
@@ -1101,14 +1108,15 @@
       <c r="M7" s="7">
         <v>0</v>
       </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="P7" s="7">
+      <c r="N7" s="7"/>
+      <c r="O7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>5</v>
       </c>
@@ -1144,14 +1152,15 @@
       <c r="M8" s="7">
         <v>0</v>
       </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="P8" s="7">
+      <c r="N8" s="7"/>
+      <c r="O8" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>6</v>
       </c>
@@ -1187,14 +1196,15 @@
       <c r="M9" s="7">
         <v>0</v>
       </c>
-      <c r="N9" s="7">
-        <v>0</v>
-      </c>
-      <c r="P9" s="7">
+      <c r="N9" s="7"/>
+      <c r="O9" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>7</v>
       </c>
@@ -1230,14 +1240,15 @@
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="P10" s="7">
+      <c r="N10" s="7"/>
+      <c r="O10" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>8</v>
       </c>
@@ -1273,14 +1284,15 @@
       <c r="M11" s="7">
         <v>0</v>
       </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="P11" s="7">
+      <c r="N11" s="7"/>
+      <c r="O11" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>9</v>
       </c>
@@ -1316,14 +1328,15 @@
       <c r="M12" s="7">
         <v>0</v>
       </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="P12" s="7">
+      <c r="N12" s="7"/>
+      <c r="O12" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>10</v>
       </c>
@@ -1359,14 +1372,15 @@
       <c r="M13" s="7">
         <v>0</v>
       </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="P13" s="7">
+      <c r="N13" s="7"/>
+      <c r="O13" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>11</v>
       </c>
@@ -1402,14 +1416,15 @@
       <c r="M14" s="7">
         <v>0</v>
       </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="P14" s="7">
+      <c r="N14" s="7"/>
+      <c r="O14" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>12</v>
       </c>
@@ -1445,10 +1460,11 @@
       <c r="M15" s="7">
         <v>0</v>
       </c>
-      <c r="N15" s="7">
-        <v>0</v>
-      </c>
-      <c r="P15" s="7">
+      <c r="N15" s="7"/>
+      <c r="O15" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="7">
         <v>786.82</v>
       </c>
     </row>
@@ -2020,7 +2036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
